--- a/01. Lessons/Clase 3. Modelos dinámicos/Ejemplo2_Modelo de Almon.xlsx
+++ b/01. Lessons/Clase 3. Modelos dinámicos/Ejemplo2_Modelo de Almon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1ecd61295a042a9/Documentos/Classroom/Econometría/01. Lessons/Clase 3. Modelos dinámicos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1ecd61295a042a9/Documentos/Classroom/Econometrics I/01. Lessons/Clase 3. Modelos dinámicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{BA15449B-30FF-4E5C-99A9-9CDB31486B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD7C1F04-1E3E-4A3C-B6CD-189076CB9E1A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{BA15449B-30FF-4E5C-99A9-9CDB31486B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93FA49EA-7D8C-4A6B-A76A-069D0CE09E61}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Almon" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1674,11 +1673,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
@@ -4655,7 +4654,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -7309,7 +7308,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" customWidth="1"/>
@@ -9497,7 +9496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9511,7 +9510,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
